--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021820.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5603,12 +5603,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7753,12 +7753,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7879,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8257,12 +8257,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8425,12 +8425,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9475,12 +9475,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9979,12 +9979,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10357,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11113,12 +11113,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11155,12 +11155,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12503,12 +12503,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12671,12 +12671,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12839,12 +12839,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12881,12 +12881,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13007,12 +13007,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13259,12 +13259,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13301,12 +13301,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14363,12 +14363,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14405,12 +14405,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14787,12 +14787,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15211,12 +15211,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15841,12 +15841,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16429,12 +16429,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16807,12 +16807,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17647,12 +17647,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17857,12 +17857,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18781,12 +18781,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18911,12 +18911,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19629,12 +19629,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19839,12 +19839,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20173,12 +20173,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20255,12 +20255,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20885,12 +20885,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21135,12 +21135,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21219,12 +21219,12 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21429,12 +21429,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -22105,12 +22105,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22357,12 +22357,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23113,12 +23113,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23533,12 +23533,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23575,12 +23575,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23659,12 +23659,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23785,12 +23785,12 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24163,12 +24163,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24415,12 +24415,12 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24751,12 +24751,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25129,12 +25129,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25717,12 +25717,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25843,12 +25843,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26011,12 +26011,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26095,12 +26095,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26221,12 +26221,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26599,12 +26599,12 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26767,12 +26767,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26851,12 +26851,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27187,12 +27187,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27527,12 +27527,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27653,12 +27653,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29505,12 +29505,12 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29877,12 +29877,12 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29961,12 +29961,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30003,12 +30003,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30127,12 +30127,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30333,12 +30333,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30417,12 +30417,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30795,12 +30795,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31173,12 +31173,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31341,12 +31341,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31719,12 +31719,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31761,12 +31761,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31845,12 +31845,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32391,12 +32391,12 @@
       <c r="H760" t="inlineStr"/>
       <c r="I760" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32433,12 +32433,12 @@
       <c r="H761" t="inlineStr"/>
       <c r="I761" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33945,12 +33945,12 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33987,12 +33987,12 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34029,12 +34029,12 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34071,12 +34071,12 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34113,12 +34113,12 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34159,12 +34159,12 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34201,12 +34201,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35973,12 +35973,12 @@
       <c r="H845" t="inlineStr"/>
       <c r="I845" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39425,12 +39425,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39509,12 +39509,12 @@
       <c r="H929" t="inlineStr"/>
       <c r="I929" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39635,12 +39635,12 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39719,12 +39719,12 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39845,12 +39845,12 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40265,12 +40265,12 @@
       <c r="H947" t="inlineStr"/>
       <c r="I947" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
